--- a/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="275">
   <si>
     <t>name</t>
   </si>
@@ -734,310 +734,88 @@
     <t>Reguła 28</t>
   </si>
   <si>
-    <t>Reguła 29</t>
-  </si>
-  <si>
-    <t>Reguła 30</t>
-  </si>
-  <si>
-    <t>Reguła 31</t>
-  </si>
-  <si>
-    <t>Reguła 32</t>
-  </si>
-  <si>
-    <t>Reguła 33</t>
-  </si>
-  <si>
-    <t>Reguła 34</t>
-  </si>
-  <si>
-    <t>Reguła 35</t>
-  </si>
-  <si>
-    <t>Reguła 36</t>
-  </si>
-  <si>
-    <t>Reguła 37</t>
-  </si>
-  <si>
-    <t>Reguła 38</t>
-  </si>
-  <si>
-    <t>Reguła 39</t>
-  </si>
-  <si>
-    <t>Reguła 40</t>
-  </si>
-  <si>
-    <t>Reguła 41</t>
-  </si>
-  <si>
-    <t>Reguła 42</t>
-  </si>
-  <si>
-    <t>Reguła 43</t>
-  </si>
-  <si>
-    <t>Reguła 44</t>
-  </si>
-  <si>
-    <t>Reguła 45</t>
-  </si>
-  <si>
-    <t>Reguła 46</t>
-  </si>
-  <si>
-    <t>Reguła 47</t>
-  </si>
-  <si>
-    <t>Reguła 48</t>
-  </si>
-  <si>
-    <t>Reguła 49</t>
-  </si>
-  <si>
-    <t>Reguła 50</t>
-  </si>
-  <si>
-    <t>Reguła 51</t>
-  </si>
-  <si>
-    <t>Reguła 52</t>
-  </si>
-  <si>
-    <t>Reguła 53</t>
-  </si>
-  <si>
-    <t>Reguła 54</t>
-  </si>
-  <si>
-    <t>Reguła 55</t>
-  </si>
-  <si>
-    <t>Reguła 56</t>
-  </si>
-  <si>
-    <t>Reguła 57</t>
-  </si>
-  <si>
-    <t>Reguła 58</t>
-  </si>
-  <si>
-    <t>Reguła 59</t>
-  </si>
-  <si>
-    <t>Reguła 60</t>
-  </si>
-  <si>
-    <t>Reguła 61</t>
-  </si>
-  <si>
-    <t>Reguła 62</t>
-  </si>
-  <si>
-    <t>Reguła 63</t>
-  </si>
-  <si>
-    <t>Reguła 64</t>
-  </si>
-  <si>
-    <t>Reguła 65</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a6', 'a5']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a2', 'a42', 'a5', 'a7']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a34', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a1', 'a17', 'a47', 'a16', 'a51', 'a14', 'a49', 'a50', 'a26', 'a9', 'a41', 'a38', 'a7', 'a3', 'a25', 'a45', 'a4', 'a11', 'a43', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a31', 'a29', 'a27', 'a30', 'a4', 'a41', 'a42', 'a21', 'a36', 'a17', 'a16', 'a51', 'a6', 'a32']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a34', 'a6', 'a30', 'a12', 'a21', 'a33', 'a44', 'a1', 'a16', 'a51', 'a49', 'a26', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a11', 'a37', 'a36', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a49', 'a24', 'a26', 'a45', 'a9', 'a30', 'a4', 'a11', 'a41', 'a43', 'a51', 'a23', 'a33', 'a5', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a34', 'a6', 'a12', 'a33', 'a5', 'a29', 'a39', 'a1', 'a17', 'a51', 'a49', 'a9', 'a27', 'a41', 'a3', 'a48', 'a11', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  28.0) =&gt; (class &gt;= 3) ['a44', 'a42', 'a4', 'a10', 'a2', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  20.0) =&gt; (class &gt;= 3) ['a2', 'a20']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  30.0) =&gt; (class &gt;= 3) ['a15', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a27', 'a18', 'a39', 'a8', 'a48', 'a2', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  27.0) =&gt; (class &gt;= 3) ['a14', 'a10', 'a42']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  18.0) =&gt; (class &gt;= 3) ['a20', 'a39', 'a2', 'a14', 'a48']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a19', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a46', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  19.0) =&gt; (class &gt;= 3) ['a2', 'a48', 'a39', 'a20']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) =&gt; (class &gt;= 3) ['a15', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a46', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a45', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a18', 'a12', 'a39', 'a43', 'a8', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a49', 'a45', 'a18', 'a12', 'a39', 'a43', 'a8', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a45', 'a18', 'a39', 'a43', 'a48', 'a10', 'a46', 'a2', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a13', 'a39']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a39', 'a37', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a8', 'a10', 'a46', 'a2', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a8', 'a48', 'a10', 'a46', 'a2', 'a14', 'a38', 'a3', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a28', 'a18', 'a39', 'a8', 'a37', 'a35', 'a48', 'a10', 'a46', 'a2', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a19', 'a34', 'a15', 'a44', 'a39', 'a35', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a8', 'a38', 'a3', 'a40', 'a25', 'a20', 'a48', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a27', 'a4', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a39', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a27', 'a50', 'a19', 'a24']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a28', 'a27', 'a18', 'a39', 'a42', 'a48', 'a35', 'a10', 'a46', 'a2', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a27']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a50', 'a10']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a27', 'a10', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a27', 'a18', 'a39', 'a8', 'a37', 'a48', 'a10', 'a46', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a42', 'a15', 'a29', 'a39', 'a10', 'a47', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a48', 'a20', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a50', 'a19', 'a29', 'a27', 'a18', 'a39', 'a42', 'a48', 'a35', 'a10', 'a46', 'a2', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a27', 'a18', 'a39', 'a48', 'a10', 'a46', 'a2', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a50', 'a29', 'a27', 'a18', 'a39', 'a42', 'a48', 'a10', 'a46', 'a2', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a27', 'a50']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a2', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) =&gt; (class &gt;= 2) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  20.0) =&gt; (class &gt;= 2) ['a2', 'a20']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a31', 'a42', 'a15', 'a39', 'a35', 'a10', 'a18', 'a28', 'a27', 'a8', 'a32', 'a40', 'a48', 'a20', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 2) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a12', 'a39', 'a1', 'a10', 'a47', 'a18', 'a14', 'a49', 'a8', 'a38', 'a7', 'a3', 'a48', 'a25', 'a45', 'a43', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  27.0) =&gt; (class &gt;= 2) ['a14', 'a10', 'a42']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a2', 'a42']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a22', 'a49', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a25', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a32', 'a36', 'a27', 'a29', 'a6', 'a4', 'a17', 'a31', 'a16', 'a42', 'a21', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a6', 'a1', 'a34', 'a8', 'a32', 'a13', 'a38', 'a51', 'a22', 'a49', 'a7', 'a33', 'a9', 'a16', 'a30', 'a41', 'a36', 'a37', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a49', 'a11', 'a25', 'a24', 'a43', 'a5', 'a7', 'a26', 'a4', 'a33', 'a9', 'a45', 'a30', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a27', 'a6', 'a1', 'a39', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a51', 'a22', 'a49', 'a48', 'a33', 'a9', 'a41', 'a36', 'a12']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a27', 'a39', 'a8', 'a14']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a25', 'a20', 'a19', 'a15', 'a50', 'a10', 'a7', 'a4', 'a42', 'a44', 'a45', 'a46', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a49', 'a43', 'a48', 'a10', 'a47', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a45', 'a39', 'a13']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a40', 'a34', 'a39', 'a8', 'a20', 'a10', 'a46', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a44']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a10', 'a4', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a50', 'a19', 'a27', 'a24']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a48', 'a15', 'a27', 'a10', 'a31', 'a42', 'a46', 'a39', 'a35']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a19', 'a15', 'a50', 'a27', 'a10', 'a29', 'a47', 'a31', 'a42', 'a46', 'a39', 'a14', 'a35']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a13', 'a37']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a11', 'a43', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
   </si>
   <si>
     <t>support</t>
@@ -3029,7 +2807,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3037,7 +2815,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3045,7 +2823,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>0.7843137254901961</v>
@@ -3053,7 +2831,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>0.7843137254901961</v>
@@ -3074,18 +2852,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -4951,7 +4729,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4970,7 +4748,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4978,7 +4756,7 @@
         <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4986,7 +4764,7 @@
         <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4994,7 +4772,7 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5002,7 +4780,7 @@
         <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5010,7 +4788,7 @@
         <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5018,7 +4796,7 @@
         <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5026,7 +4804,7 @@
         <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5034,7 +4812,7 @@
         <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5042,7 +4820,7 @@
         <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5050,7 +4828,7 @@
         <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5058,7 +4836,7 @@
         <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5066,7 +4844,7 @@
         <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5074,7 +4852,7 @@
         <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5082,7 +4860,7 @@
         <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5090,7 +4868,7 @@
         <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5098,7 +4876,7 @@
         <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5106,7 +4884,7 @@
         <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5114,7 +4892,7 @@
         <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5122,7 +4900,7 @@
         <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5130,7 +4908,7 @@
         <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5138,7 +4916,7 @@
         <v>229</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5146,7 +4924,7 @@
         <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5154,7 +4932,7 @@
         <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5162,7 +4940,7 @@
         <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5170,7 +4948,7 @@
         <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5178,7 +4956,7 @@
         <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5186,303 +4964,7 @@
         <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>246</v>
-      </c>
-      <c r="B40" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>251</v>
-      </c>
-      <c r="B45" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B53" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
         <v>263</v>
-      </c>
-      <c r="B57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B62" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B64" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>272</v>
-      </c>
-      <c r="B66" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5492,7 +4974,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5500,13 +4982,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5599,68 +5081,68 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1372549019607843</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C10">
-        <v>0.1794871794871795</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.0392156862745098</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C11">
-        <v>0.05128205128205128</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0392156862745098</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C12">
-        <v>0.05128205128205128</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.2352941176470588</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>0.1568627450980392</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C14">
-        <v>0.2051282051282051</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.05882352941176471</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C15">
-        <v>0.07692307692307693</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5676,13 +5158,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>0.2941176470588235</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C17">
-        <v>0.3846153846153846</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5698,530 +5180,123 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0.2549019607843137</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C19">
-        <v>0.3333333333333333</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>0.05882352941176471</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C20">
-        <v>0.07692307692307693</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>0.05882352941176471</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C21">
-        <v>0.07692307692307693</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0392156862745098</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C22">
-        <v>0.05128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>0.2941176470588235</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C23">
-        <v>0.3846153846153846</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>0.3137254901960784</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C24">
-        <v>0.4102564102564102</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.2156862745098039</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C25">
-        <v>0.282051282051282</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B26">
-        <v>0.0392156862745098</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C26">
-        <v>0.05128205128205128</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0.07843137254901961</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C27">
-        <v>0.1025641025641026</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>0.09803921568627451</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C28">
-        <v>0.1282051282051282</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0392156862745098</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C29">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C30">
-        <v>0.1794871794871795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C31">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="C32">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C33">
-        <v>0.5641025641025641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C34">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C35">
-        <v>0.1282051282051282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C36">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C37">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C38">
-        <v>0.1282051282051282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C39">
-        <v>0.1794871794871795</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="B40">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="C40">
-        <v>0.358974358974359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C41">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C42">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C43">
-        <v>0.1538461538461539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C44">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C45">
-        <v>0.1282051282051282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C46">
-        <v>0.1794871794871795</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="C47">
-        <v>0.358974358974359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>19</v>
-      </c>
-      <c r="B48">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C48">
-        <v>0.4871794871794872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C49">
-        <v>0.4102564102564102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>21</v>
-      </c>
-      <c r="B50">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C50">
-        <v>0.5384615384615384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C51">
-        <v>0.4358974358974359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C52">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C53">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C54">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C55">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C56">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C57">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C58">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C59">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C60">
-        <v>0.1025641025641026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C61">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C62">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>19</v>
-      </c>
-      <c r="B63">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C63">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C64">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>20</v>
-      </c>
-      <c r="B65">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C65">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C66">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
@@ -734,88 +734,88 @@
     <t>Reguła 28</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a2', 'a42']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a22', 'a49', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a25', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a32', 'a36', 'a27', 'a29', 'a6', 'a4', 'a17', 'a31', 'a16', 'a42', 'a21', 'a30']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a6', 'a1', 'a34', 'a8', 'a32', 'a13', 'a38', 'a51', 'a22', 'a49', 'a7', 'a33', 'a9', 'a16', 'a30', 'a41', 'a36', 'a37', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a49', 'a11', 'a25', 'a24', 'a43', 'a5', 'a7', 'a26', 'a4', 'a33', 'a9', 'a45', 'a30', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a27', 'a6', 'a1', 'a39', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a51', 'a22', 'a49', 'a48', 'a33', 'a9', 'a41', 'a36', 'a12']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a27', 'a39', 'a8', 'a14']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a25', 'a20', 'a19', 'a15', 'a50', 'a10', 'a7', 'a4', 'a42', 'a44', 'a45', 'a46', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a49', 'a43', 'a48', 'a10', 'a47', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a45', 'a39', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a40', 'a34', 'a39', 'a8', 'a20', 'a10', 'a46', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a44']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a10', 'a4', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a4', 'a45']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a50', 'a19', 'a27', 'a24']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a48', 'a15', 'a27', 'a10', 'a31', 'a42', 'a46', 'a39', 'a35']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a19', 'a15', 'a50', 'a27', 'a10', 'a29', 'a47', 'a31', 'a42', 'a46', 'a39', 'a14', 'a35']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a13', 'a37']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a11', 'a43', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a6', 'a5']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a2', 'a42', 'a5', 'a7']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a45', 'a41', 'a23', 'a51', 'a24', 'a4', 'a14', 'a21', 'a49', 'a3', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a1', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a29', 'a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a16', 'a42', 'a30', 'a27', 'a32', 'a17', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a37', 'a41', 'a51', 'a6', 'a21', 'a49', 'a3', 'a12', 'a22', 'a33', 'a26', 'a30', 'a32', 'a8', 'a1', 'a34', 'a38', 'a13', 'a9', 'a44', 'a16', 'a7']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a11', 'a24', 'a4', 'a5', 'a43', 'a9', 'a45', 'a49', 'a41', 'a33', 'a26', 'a25', 'a30', 'a7', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a41', 'a23', 'a39', 'a51', 'a6', 'a49', 'a3', 'a12', 'a29', 'a22', 'a33', 'a27', 'a48', 'a1', 'a34', 'a13', 'a9', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a14', 'a20', 'a2', 'a27', 'a48', 'a8']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a50', 'a4', 'a14', 'a20', 'a2', 'a44', 'a45', 'a10', 'a19', 'a25', 'a42', 'a46', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a38', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a49', 'a25', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a13', 'a45', 'a2', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a4', 'a2', 'a10', 'a40', 'a27']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a45', 'a2', 'a4']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a27', 'a50', 'a19']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a28', 'a46', 'a20', 'a2', 'a10', 'a42', 'a27', 'a35', 'a40', 'a48', 'a15', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a29', 'a18', 'a39', 'a50', 'a14', 'a20', 'a2', 'a10', 'a19', 'a42', 'a27', 'a35', 'a46', 'a48', 'a15', 'a47', 'a31']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a37', 'a2', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a45', 'a10', 'a46', 'a39', 'a18', 'a14', 'a49', 'a3', 'a47', 'a12', 'a2', 'a22', 'a25', 'a48', 'a8', 'a1', 'a38', 'a13', 'a43', 'a7']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
   </si>
   <si>
     <t>support</t>
@@ -833,10 +833,10 @@
     <t>f1_score</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>correct</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>

--- a/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="365">
   <si>
     <t>name</t>
   </si>
@@ -734,88 +734,358 @@
     <t>Reguła 28</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a6', 'a5']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a2', 'a42', 'a5', 'a7']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a45', 'a41', 'a23', 'a51', 'a24', 'a4', 'a14', 'a21', 'a49', 'a3', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a1', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a29', 'a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a16', 'a42', 'a30', 'a27', 'a32', 'a17', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a37', 'a41', 'a51', 'a6', 'a21', 'a49', 'a3', 'a12', 'a22', 'a33', 'a26', 'a30', 'a32', 'a8', 'a1', 'a34', 'a38', 'a13', 'a9', 'a44', 'a16', 'a7']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a11', 'a24', 'a4', 'a5', 'a43', 'a9', 'a45', 'a49', 'a41', 'a33', 'a26', 'a25', 'a30', 'a7', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a41', 'a23', 'a39', 'a51', 'a6', 'a49', 'a3', 'a12', 'a29', 'a22', 'a33', 'a27', 'a48', 'a1', 'a34', 'a13', 'a9', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a14', 'a20', 'a2', 'a27', 'a48', 'a8']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a50', 'a4', 'a14', 'a20', 'a2', 'a44', 'a45', 'a10', 'a19', 'a25', 'a42', 'a46', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a38', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a49', 'a25', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a13', 'a45', 'a2', 'a37']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a4', 'a2', 'a10', 'a40', 'a27']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a45', 'a2', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a28', 'a46', 'a20', 'a2', 'a10', 'a42', 'a27', 'a35', 'a40', 'a48', 'a15', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a29', 'a18', 'a39', 'a50', 'a14', 'a20', 'a2', 'a10', 'a19', 'a42', 'a27', 'a35', 'a46', 'a48', 'a15', 'a47', 'a31']</t>
+    <t>Reguła 29</t>
+  </si>
+  <si>
+    <t>Reguła 30</t>
+  </si>
+  <si>
+    <t>Reguła 31</t>
+  </si>
+  <si>
+    <t>Reguła 32</t>
+  </si>
+  <si>
+    <t>Reguła 33</t>
+  </si>
+  <si>
+    <t>Reguła 34</t>
+  </si>
+  <si>
+    <t>Reguła 35</t>
+  </si>
+  <si>
+    <t>Reguła 36</t>
+  </si>
+  <si>
+    <t>Reguła 37</t>
+  </si>
+  <si>
+    <t>Reguła 38</t>
+  </si>
+  <si>
+    <t>Reguła 39</t>
+  </si>
+  <si>
+    <t>Reguła 40</t>
+  </si>
+  <si>
+    <t>Reguła 41</t>
+  </si>
+  <si>
+    <t>Reguła 42</t>
+  </si>
+  <si>
+    <t>Reguła 43</t>
+  </si>
+  <si>
+    <t>Reguła 44</t>
+  </si>
+  <si>
+    <t>Reguła 45</t>
+  </si>
+  <si>
+    <t>Reguła 46</t>
+  </si>
+  <si>
+    <t>Reguła 47</t>
+  </si>
+  <si>
+    <t>Reguła 48</t>
+  </si>
+  <si>
+    <t>Reguła 49</t>
+  </si>
+  <si>
+    <t>Reguła 50</t>
+  </si>
+  <si>
+    <t>Reguła 51</t>
+  </si>
+  <si>
+    <t>Reguła 52</t>
+  </si>
+  <si>
+    <t>Reguła 53</t>
+  </si>
+  <si>
+    <t>Reguła 54</t>
+  </si>
+  <si>
+    <t>Reguła 55</t>
+  </si>
+  <si>
+    <t>Reguła 56</t>
+  </si>
+  <si>
+    <t>Reguła 57</t>
+  </si>
+  <si>
+    <t>Reguła 58</t>
+  </si>
+  <si>
+    <t>Reguła 59</t>
+  </si>
+  <si>
+    <t>Reguła 60</t>
+  </si>
+  <si>
+    <t>Reguła 61</t>
+  </si>
+  <si>
+    <t>Reguła 62</t>
+  </si>
+  <si>
+    <t>Reguła 63</t>
+  </si>
+  <si>
+    <t>Reguła 64</t>
+  </si>
+  <si>
+    <t>Reguła 65</t>
+  </si>
+  <si>
+    <t>Reguła 66</t>
+  </si>
+  <si>
+    <t>Reguła 67</t>
+  </si>
+  <si>
+    <t>Reguła 68</t>
+  </si>
+  <si>
+    <t>Reguła 69</t>
+  </si>
+  <si>
+    <t>Reguła 70</t>
+  </si>
+  <si>
+    <t>Reguła 71</t>
+  </si>
+  <si>
+    <t>Reguła 72</t>
+  </si>
+  <si>
+    <t>Reguła 73</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (infertility &gt;=  3.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 1) ['a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  5.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  1.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  1.0) &amp; (develop_quality &lt;=  4.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (infertility &gt;=  3.0) =&gt; (class &lt;= 2) ['a11', 'a23', 'a51', 'a6', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a5', 'a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (sperm &lt;=  1.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  9.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  8.0) &amp; (develop_quality &lt;=  2.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  3.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  12.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a42', 'a2']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  1.0) =&gt; (class &lt;= 3) ['a3']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a43', 'a4', 'a51', 'a1', 'a3', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a25', 'a49', 'a21', 'a22', 'a29', 'a24', 'a12', 'a34', 'a47', 'a17', 'a19', 'a41', 'a23', 'a38', 'a45', 'a11', 'a13', 'a44', 'a30', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a17', 'a16', 'a36', 'a32', 'a41', 'a21', 'a42', 'a4', 'a51', 'a29', 'a27', 'a6', 'a30', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a51', 'a1', 'a3', 'a26', 'a9', 'a16', 'a7', 'a49', 'a21', 'a22', 'a12', 'a34', 'a37', 'a32', 'a41', 'a38', 'a11', 'a13', 'a44', 'a6', 'a33', 'a30']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a11', 'a7', 'a43', 'a25', 'a41', 'a49', 'a23', 'a4', 'a51', 'a24', 'a30', 'a33', 'a45', 'a5', 'a26', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a51', 'a1', 'a3', 'a9', 'a49', 'a22', 'a29', 'a27', 'a12', 'a34', 'a17', 'a41', 'a23', 'a11', 'a48', 'a13', 'a39', 'a6', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a8', 'a48', 'a2', 'a39', 'a27', 'a14', 'a18', 'a20']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a7', 'a2', 'a19', 'a25', 'a10', 'a44', 'a42', 'a4', 'a15', 'a46', 'a14', 'a18', 'a45', 'a20', 'a50']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a10', 'a4', 'a27', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50', 'a31']</t>
   </si>
   <si>
     <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a37', 'a2', 'a13', 'a39']</t>
   </si>
   <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a45', 'a10', 'a46', 'a39', 'a18', 'a14', 'a49', 'a3', 'a47', 'a12', 'a2', 'a22', 'a25', 'a48', 'a8', 'a1', 'a38', 'a13', 'a43', 'a7']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a2', 'a13', 'a25', 'a10', 'a39', 'a48', 'a49', 'a46', 'a14', 'a12', 'a18', 'a38', 'a45', 'a47']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a45', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a29', 'a15', 'a27', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a38', 'a48', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a4', 'a45', 'a37']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a32', 'a2', 'a39', 'a10', 'a28', 'a42', 'a15', 'a27', 'a35', 'a46', 'a18', 'a20', 'a40', 'a37', 'a31']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a2', 'a10', 'a29', 'a15', 'a27', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a38', 'a48', 'a39']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a4', 'a2', 'a39']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a39', 'a10', 'a28', 'a42', 'a15', 'a27', 'a35', 'a46', 'a18', 'a20', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a39', 'a10', 'a42', 'a29', 'a15', 'a27', 'a14', 'a35', 'a18', 'a46', 'a47', 'a20', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a27', 'a24', 'a50', 'a19']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) &amp; (infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a16', 'a7', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a19', 'a45', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  14.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a2', 'a39', 'a10', 'a27', 'a34', 'a18', 'a47', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a2', 'a13', 'a39', 'a10', 'a34', 'a18', 'a47', 'a45', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a46', 'a14', 'a50', 'a2', 'a10', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a16', 'a2', 'a13', 'a39', 'a10', 'a27', 'a34', 'a18', 'a47', 'a37']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (infertility &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (morpho_quality &gt;=  10.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a25', 'a10', 'a28', 'a39', 'a42', 'a15', 'a46', 'a14', 'a35', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a39', 'a10', 'a18', 'a47', 'a45', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a39', 'a10', 'a28', 'a42', 'a15', 'a46', 'a14', 'a35', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  14.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a39', 'a44']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a42', 'a51', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a6', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a4', 'a51', 'a1', 'a14', 'a50', 'a26', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a29', 'a27', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a17', 'a32', 'a19', 'a41', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a7', 'a2', 'a25', 'a10', 'a49', 'a22', 'a12', 'a18', 'a47', 'a38', 'a45', 'a48', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a38', 'a45', 'a11', 'a13', 'a39', 'a28', 'a44', 'a30', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
   </si>
   <si>
     <t>support</t>
@@ -827,16 +1097,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>not_classified</t>
-  </si>
-  <si>
-    <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -2807,7 +3077,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2815,26 +3085,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="B3">
-        <v>0.7843137254901961</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="B4">
-        <v>0.7843137254901961</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2852,18 +3122,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3306,7 +3576,7 @@
         <v>51</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4729,7 +4999,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4748,7 +5018,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4756,7 +5026,7 @@
         <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4764,7 +5034,7 @@
         <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4772,7 +5042,7 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4780,7 +5050,7 @@
         <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4788,7 +5058,7 @@
         <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4796,7 +5066,7 @@
         <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4804,7 +5074,7 @@
         <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4812,7 +5082,7 @@
         <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4820,7 +5090,7 @@
         <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4828,7 +5098,7 @@
         <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4836,7 +5106,7 @@
         <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4844,7 +5114,7 @@
         <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4852,7 +5122,7 @@
         <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4860,7 +5130,7 @@
         <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4868,7 +5138,7 @@
         <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4876,7 +5146,7 @@
         <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4884,7 +5154,7 @@
         <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4892,7 +5162,7 @@
         <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4900,7 +5170,7 @@
         <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4908,7 +5178,7 @@
         <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4916,7 +5186,7 @@
         <v>229</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4924,7 +5194,7 @@
         <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4932,7 +5202,7 @@
         <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4940,7 +5210,7 @@
         <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4948,7 +5218,7 @@
         <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4956,7 +5226,7 @@
         <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4964,7 +5234,367 @@
         <v>235</v>
       </c>
       <c r="B29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>263</v>
+      </c>
+      <c r="B57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +5604,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4982,24 +5612,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0392156862745098</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C2">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5015,287 +5645,782 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.07843137254901961</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C4">
-        <v>0.09302325581395349</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.6274509803921569</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C5">
-        <v>0.7441860465116279</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.2745098039215687</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C6">
-        <v>0.3255813953488372</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.4705882352941176</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C7">
-        <v>0.5581395348837209</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3137254901960784</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
-        <v>0.3720930232558139</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.4117647058823529</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C9">
-        <v>0.4883720930232558</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.0392156862745098</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C10">
-        <v>0.05128205128205128</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.1568627450980392</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C11">
-        <v>0.2051282051282051</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0.2941176470588235</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C12">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0.3137254901960784</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C13">
-        <v>0.4102564102564102</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>0.09803921568627451</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C14">
-        <v>0.1282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.4313725490196079</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C15">
-        <v>0.5641025641025641</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0.09803921568627451</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C16">
-        <v>0.1282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0.07843137254901961</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C17">
-        <v>0.1025641025641026</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.07843137254901961</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C18">
-        <v>0.1025641025641026</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0.1372549019607843</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C19">
-        <v>0.1794871794871795</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>0.2745098039215687</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C20">
-        <v>0.358974358974359</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>0.1372549019607843</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C21">
-        <v>0.1794871794871795</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>0.4117647058823529</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C22">
-        <v>0.5384615384615384</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C23">
-        <v>0.4358974358974359</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>0.07843137254901961</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C24">
-        <v>0.1025641025641026</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.6470588235294118</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C25">
-        <v>0.66</v>
+        <v>0.7441860465116279</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>0.7647058823529411</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C26">
-        <v>0.78</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>0.392156862745098</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C27">
-        <v>0.4</v>
+        <v>0.5581395348837209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>0.8823529411764706</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C28">
-        <v>0.9</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C29">
+        <v>0.4883720930232558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="C30">
+        <v>0.05128205128205128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="C31">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="C32">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="C33">
+        <v>0.1794871794871795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="C34">
+        <v>0.1282051282051282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="C35">
+        <v>0.1794871794871795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="C36">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="C37">
+        <v>0.2307692307692308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C38">
+        <v>0.4102564102564102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="C39">
+        <v>0.1282051282051282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="C40">
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C41">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C42">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C43">
+        <v>0.4102564102564102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="C44">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="C45">
+        <v>0.4871794871794872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="C46">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0.2745098039215687</v>
+      </c>
+      <c r="C47">
+        <v>0.358974358974359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C48">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="C49">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="C50">
+        <v>0.6410256410256411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="C51">
+        <v>0.717948717948718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="C52">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C53">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C54">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="C55">
+        <v>0.4871794871794872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="C56">
+        <v>0.2307692307692308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="C57">
+        <v>0.282051282051282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="C58">
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="C59">
+        <v>0.282051282051282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C60">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="C61">
+        <v>0.5128205128205128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="C62">
+        <v>0.717948717948718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="C63">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C64">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="C65">
+        <v>0.1794871794871795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C66">
+        <v>0.4102564102564102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="C67">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="C68">
+        <v>0.6410256410256411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>27</v>
+      </c>
+      <c r="B69">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C69">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C70">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>39</v>
+      </c>
+      <c r="B71">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="C71">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="C72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>45</v>
+      </c>
+      <c r="B73">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="C73">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B74">
         <v>0.6862745098039216</v>
       </c>
-      <c r="C29">
+      <c r="C74">
         <v>0.7</v>
       </c>
     </row>
